--- a/ms excel/1.1.xlsx
+++ b/ms excel/1.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WDPF PC-07\Desktop\isdb\cf\ms excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\html-70\html-70\ms excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28795084-4FED-417A-96BF-757F22B7B07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DEFBD3-C68A-462A-A50D-D85694153569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1209,7 +1209,1254 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BC8-4EBB-AF80-69E78DC7C3D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2BC8-4EBB-AF80-69E78DC7C3D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2BC8-4EBB-AF80-69E78DC7C3D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$32:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2BC8-4EBB-AF80-69E78DC7C3D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2BC8-4EBB-AF80-69E78DC7C3D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2BC8-4EBB-AF80-69E78DC7C3D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$35:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2BC8-4EBB-AF80-69E78DC7C3D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2BC8-4EBB-AF80-69E78DC7C3D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2BC8-4EBB-AF80-69E78DC7C3D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2BC8-4EBB-AF80-69E78DC7C3D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="1057597743"/>
+        <c:axId val="1057609743"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1057597743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1057609743"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1057609743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1057597743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1738,6 +2985,576 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1771,6 +3588,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76206</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4214CF85-24E7-A364-0E12-547CC96BA01C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2042,10 +3895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:Y22"/>
+  <dimension ref="C1:Y38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I25" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2185,11 +4038,11 @@
         <v>3000</v>
       </c>
       <c r="T7">
-        <f>Q7*S7</f>
+        <f t="shared" ref="T7:T21" si="0">Q7*S7</f>
         <v>127029000</v>
       </c>
       <c r="U7">
-        <f>MAX(Q7,S7)</f>
+        <f t="shared" ref="U7:U21" si="1">MAX(Q7,S7)</f>
         <v>42343</v>
       </c>
       <c r="V7">
@@ -2218,19 +4071,19 @@
         <v>11000</v>
       </c>
       <c r="T8">
-        <f>Q8*S8</f>
+        <f t="shared" si="0"/>
         <v>257653000</v>
       </c>
       <c r="U8">
-        <f>MAX(Q8,S8)</f>
+        <f t="shared" si="1"/>
         <v>23423</v>
       </c>
       <c r="V8">
-        <f t="shared" ref="V8:V21" si="0">SUM(MIN(Q8,S8))</f>
+        <f t="shared" ref="V8:V21" si="2">SUM(MIN(Q8,S8))</f>
         <v>11000</v>
       </c>
       <c r="W8">
-        <f t="shared" ref="W8:W21" si="1">AVERAGE(Q8,S9)</f>
+        <f t="shared" ref="W8:W21" si="3">AVERAGE(Q8,S9)</f>
         <v>17211.5</v>
       </c>
     </row>
@@ -2251,19 +4104,19 @@
         <v>11000</v>
       </c>
       <c r="T9">
-        <f>Q9*S9</f>
+        <f t="shared" si="0"/>
         <v>3579752000</v>
       </c>
       <c r="U9">
-        <f>MAX(Q9,S9)</f>
+        <f t="shared" si="1"/>
         <v>325432</v>
       </c>
       <c r="V9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="W9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>168216</v>
       </c>
     </row>
@@ -2281,19 +4134,19 @@
         <v>11000</v>
       </c>
       <c r="T10">
-        <f>Q10*S10</f>
+        <f t="shared" si="0"/>
         <v>3765905000</v>
       </c>
       <c r="U10">
-        <f>MAX(Q10,S10)</f>
+        <f t="shared" si="1"/>
         <v>342355</v>
       </c>
       <c r="V10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="W10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>176677.5</v>
       </c>
     </row>
@@ -2311,19 +4164,19 @@
         <v>11000</v>
       </c>
       <c r="T11">
-        <f>Q11*S11</f>
+        <f t="shared" si="0"/>
         <v>4767752000</v>
       </c>
       <c r="U11">
-        <f>MAX(Q11,S11)</f>
+        <f t="shared" si="1"/>
         <v>433432</v>
       </c>
       <c r="V11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="W11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>222216</v>
       </c>
     </row>
@@ -2341,19 +4194,19 @@
         <v>11000</v>
       </c>
       <c r="T12">
-        <f>Q12*S12</f>
+        <f t="shared" si="0"/>
         <v>3567905000</v>
       </c>
       <c r="U12">
-        <f>MAX(Q12,S12)</f>
+        <f t="shared" si="1"/>
         <v>324355</v>
       </c>
       <c r="V12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="W12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>167677.5</v>
       </c>
     </row>
@@ -2371,19 +4224,19 @@
         <v>11000</v>
       </c>
       <c r="T13">
-        <f>Q13*S13</f>
+        <f t="shared" si="0"/>
         <v>487542000</v>
       </c>
       <c r="U13">
-        <f>MAX(Q13,S13)</f>
+        <f t="shared" si="1"/>
         <v>44322</v>
       </c>
       <c r="V13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="W13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27661</v>
       </c>
     </row>
@@ -2401,19 +4254,19 @@
         <v>11000</v>
       </c>
       <c r="T14">
-        <f>Q14*S14</f>
+        <f t="shared" si="0"/>
         <v>2580215000</v>
       </c>
       <c r="U14">
-        <f>MAX(Q14,S14)</f>
+        <f t="shared" si="1"/>
         <v>234565</v>
       </c>
       <c r="V14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="W14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>122782.5</v>
       </c>
     </row>
@@ -2431,19 +4284,19 @@
         <v>11000</v>
       </c>
       <c r="T15">
-        <f>Q15*S15</f>
+        <f t="shared" si="0"/>
         <v>3568983000</v>
       </c>
       <c r="U15">
-        <f>MAX(Q15,S15)</f>
+        <f t="shared" si="1"/>
         <v>324453</v>
       </c>
       <c r="V15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="W15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>167726.5</v>
       </c>
     </row>
@@ -2461,23 +4314,23 @@
         <v>11000</v>
       </c>
       <c r="T16">
-        <f>Q16*S16</f>
+        <f t="shared" si="0"/>
         <v>585585000</v>
       </c>
       <c r="U16">
-        <f>MAX(Q16,S16)</f>
+        <f t="shared" si="1"/>
         <v>53235</v>
       </c>
       <c r="V16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="W16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>32117.5</v>
       </c>
     </row>
-    <row r="17" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
       <c r="O17" s="1">
         <v>11</v>
       </c>
@@ -2491,23 +4344,23 @@
         <v>11000</v>
       </c>
       <c r="T17">
-        <f>Q17*S17</f>
+        <f t="shared" si="0"/>
         <v>5978852000</v>
       </c>
       <c r="U17">
-        <f>MAX(Q17,S17)</f>
+        <f t="shared" si="1"/>
         <v>543532</v>
       </c>
       <c r="V17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="W17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>277266</v>
       </c>
     </row>
-    <row r="18" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
       <c r="O18" s="1">
         <v>12</v>
       </c>
@@ -2521,23 +4374,23 @@
         <v>11000</v>
       </c>
       <c r="T18">
-        <f>Q18*S18</f>
+        <f t="shared" si="0"/>
         <v>3570072000</v>
       </c>
       <c r="U18">
-        <f>MAX(Q18,S18)</f>
+        <f t="shared" si="1"/>
         <v>324552</v>
       </c>
       <c r="V18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="W18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>167776</v>
       </c>
     </row>
-    <row r="19" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
       <c r="O19" s="1">
         <v>13</v>
       </c>
@@ -2551,23 +4404,23 @@
         <v>11000</v>
       </c>
       <c r="T19">
-        <f>Q19*S19</f>
+        <f t="shared" si="0"/>
         <v>575564000</v>
       </c>
       <c r="U19">
-        <f>MAX(Q19,S19)</f>
+        <f t="shared" si="1"/>
         <v>52324</v>
       </c>
       <c r="V19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="W19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31662</v>
       </c>
     </row>
-    <row r="20" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
       <c r="O20" s="1">
         <v>14</v>
       </c>
@@ -2581,23 +4434,23 @@
         <v>11000</v>
       </c>
       <c r="T20">
-        <f>Q20*S20</f>
+        <f t="shared" si="0"/>
         <v>3766752000</v>
       </c>
       <c r="U20">
-        <f>MAX(Q20,S20)</f>
+        <f t="shared" si="1"/>
         <v>342432</v>
       </c>
       <c r="V20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="W20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>176716</v>
       </c>
     </row>
-    <row r="21" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
       <c r="O21" s="1">
         <v>15</v>
       </c>
@@ -2611,26 +4464,116 @@
         <v>11000</v>
       </c>
       <c r="T21">
-        <f>Q21*S21</f>
+        <f t="shared" si="0"/>
         <v>3775794000</v>
       </c>
       <c r="U21">
-        <f>MAX(Q21,S21)</f>
+        <f t="shared" si="1"/>
         <v>343254</v>
       </c>
       <c r="V21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
       <c r="W21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>250127</v>
       </c>
     </row>
-    <row r="22" spans="15:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
       <c r="S22">
         <f>SUM(S7:S21)</f>
         <v>157000</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>32</v>
+      </c>
+      <c r="D29" t="str">
+        <f>IF(C29&gt;=99,"A+",IF(C29&gt;=80,"a",IF(C29&gt;=70,"a-",IF(C29&gt;=60,"b+",IF(C29&gt;=50,"b",IF(C29&gt;=40,"c",IF(C29&gt;=33,"d",IF(C29&lt;=33,"f",))))))))</f>
+        <v>f</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>51</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" ref="D30:D38" si="4">IF(C30&gt;=99,"A+",IF(C30&gt;=80,"a",IF(C30&gt;=70,"a-",IF(C30&gt;=60,"b+",IF(C30&gt;=50,"b",IF(C30&gt;=40,"c",IF(C30&gt;=33,"d",IF(C30&lt;=33,"f",))))))))</f>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>55</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="4"/>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>99</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="4"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="4"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="4"/>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>73</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="4"/>
+        <v>a-</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>64</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="4"/>
+        <v>b+</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>82</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="4"/>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>87</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="4"/>
+        <v>a</v>
       </c>
     </row>
   </sheetData>
@@ -2670,6 +4613,19 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2F6262C5-5238-4F37-B82D-B25D73500DBC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O6:V21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="3" id="{06100A7E-4983-4B2C-96A2-FD3B1C0A23B6}">
             <x14:iconSet iconSet="3Stars">
               <x14:cfvo type="percent">
@@ -2684,19 +4640,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>O7:V21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2F6262C5-5238-4F37-B82D-B25D73500DBC}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF008AEF"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>O6:V21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2E631110-973C-432E-A78A-07ECC1FDE6DA}">
